--- a/sql/sql.xlsx
+++ b/sql/sql.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\二技\專題\git\NNCS_Dashboard\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBAF7D-DB8E-4262-BC3D-7F462272034F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD57DB-4E93-4195-9933-92394558939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{80E2B621-957F-4E22-BB61-41068E31FAA3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="377">
   <si>
     <t>name</t>
   </si>
@@ -1085,9 +1085,6 @@
   </si>
   <si>
     <t>所在教室編號</t>
-  </si>
-  <si>
-    <t>teacher_id</t>
   </si>
   <si>
     <t>指導老師編號</t>
@@ -1869,14 +1866,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1887,34 +1887,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4862,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C7798-95FE-4119-AB4F-D8AE6D609CE5}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -4881,20 +4878,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="G1" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5003,13 +5000,13 @@
         <v>284</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>264</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="21">
@@ -5031,13 +5028,13 @@
         <v>286</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="21">
@@ -5059,41 +5056,41 @@
         <v>18</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>267</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>267</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>267</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="21" t="s">
@@ -5102,28 +5099,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>267</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="21"/>
       <c r="G9" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>267</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -5147,7 +5144,7 @@
         <v>263</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="21">
@@ -5172,10 +5169,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="26">
@@ -5183,35 +5180,35 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="48" t="s">
         <v>274</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D13" s="50"/>
-      <c r="E13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D14" s="50"/>
-      <c r="E14" s="46"/>
+      <c r="E14" s="42"/>
       <c r="G14" s="16" t="s">
         <v>255</v>
       </c>
@@ -5229,21 +5226,21 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="50"/>
-      <c r="E15" s="46"/>
+      <c r="E15" s="42"/>
       <c r="G15" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>263</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>261</v>
@@ -5253,21 +5250,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D16" s="50"/>
-      <c r="E16" s="46"/>
+      <c r="E16" s="42"/>
       <c r="G16" s="14" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I16" s="13" t="s">
         <v>317</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>318</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="21" t="s">
@@ -5275,39 +5272,39 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
       <c r="G17" s="14" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="36" t="s">
         <v>280</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>275</v>
       </c>
       <c r="D18" s="51"/>
-      <c r="E18" s="48">
+      <c r="E18" s="41">
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -5317,7 +5314,7 @@
         <v>264</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="27">
@@ -5325,38 +5322,38 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="18" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="50"/>
-      <c r="E19" s="46"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D20" s="50"/>
-      <c r="E20" s="46"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:11" ht="16.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="49"/>
-      <c r="G21" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="G22" s="16" t="s">
@@ -5377,13 +5374,13 @@
     </row>
     <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G23" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>261</v>
@@ -5393,18 +5390,18 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="G24" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>326</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>97</v>
@@ -5431,13 +5428,13 @@
         <v>259</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J25" s="18"/>
       <c r="K25" s="21">
@@ -5446,13 +5443,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>263</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>261</v>
@@ -5461,13 +5458,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="21"/>
@@ -5487,13 +5484,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J27" s="19"/>
       <c r="K27" s="25">
@@ -5517,13 +5514,13 @@
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>264</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="21">
@@ -5531,13 +5528,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G30" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="36"/>
+      <c r="G30" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G31" s="16" t="s">
@@ -5557,21 +5554,21 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
+      <c r="A32" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="G32" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>261</v>
@@ -5600,14 +5597,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>351</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>352</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5618,7 +5615,7 @@
         <v>263</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>261</v>
@@ -5630,14 +5627,14 @@
         <v>12</v>
       </c>
       <c r="H34" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="I34" s="31" t="s">
         <v>353</v>
-      </c>
-      <c r="I34" s="31" t="s">
-        <v>354</v>
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
@@ -5648,11 +5645,11 @@
         <v>267</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -5660,24 +5657,24 @@
         <v>6</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>336</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="G37" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G38" s="16" t="s">
@@ -5697,21 +5694,21 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+      <c r="A39" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
       <c r="G39" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H39" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J39" s="18" t="s">
         <v>261</v>
@@ -5752,13 +5749,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="16" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B41" s="18" t="s">
         <v>263</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>261</v>
@@ -5767,13 +5764,13 @@
         <v>1</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J41" s="18"/>
       <c r="K41" s="21">
@@ -5788,20 +5785,20 @@
         <v>263</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="21">
         <v>1</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>263</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J42" s="18"/>
       <c r="K42" s="21">
@@ -5810,17 +5807,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>263</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>53</v>
@@ -5829,7 +5826,7 @@
         <v>267</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J43" s="18"/>
       <c r="K43" s="21">
@@ -5841,10 +5838,10 @@
         <v>9</v>
       </c>
       <c r="B44" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>344</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>345</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="28">
@@ -5857,7 +5854,7 @@
         <v>263</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J44" s="18"/>
       <c r="K44" s="21">
@@ -5869,23 +5866,23 @@
         <v>10</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="29">
         <v>0.79166666666666663</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>263</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="27">
@@ -5901,13 +5898,13 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
@@ -5928,13 +5925,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>263</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>261</v>
@@ -5945,7 +5942,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>263</v>
@@ -5966,7 +5963,7 @@
         <v>264</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="21">
@@ -5975,13 +5972,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>263</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="21">
@@ -5993,7 +5990,7 @@
         <v>241</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>83</v>
@@ -6004,88 +6001,77 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="36" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="34"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="46"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="18" t="s">
+      <c r="D57" s="18"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="34"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="46"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="18" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="34"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="46"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="18" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="46"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="41"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="18"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="35"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="46"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="19" t="s">
-        <v>369</v>
-      </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="49"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="G30:K30"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:A17"/>
@@ -6096,6 +6082,17 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D18:D21"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="G37:K37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/sql/sql.xlsx
+++ b/sql/sql.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\二技\專題\git\NNCS_Dashboard\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD57DB-4E93-4195-9933-92394558939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52000B-EE6F-43D0-B341-AC81E5B48725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{80E2B621-957F-4E22-BB61-41068E31FAA3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{80E2B621-957F-4E22-BB61-41068E31FAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="378">
   <si>
     <t>name</t>
   </si>
@@ -1365,6 +1365,10 @@
   </si>
   <si>
     <t>classtime_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1866,17 +1870,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1887,31 +1888,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2260,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E13BBEE-3BC1-4142-A75A-FA3BE728D385}">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145:J147"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="A17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -2469,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -4859,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C7798-95FE-4119-AB4F-D8AE6D609CE5}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -4878,20 +4882,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="G1" s="44" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="G1" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
@@ -5180,35 +5184,35 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="42" t="s">
         <v>274</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D13" s="50"/>
-      <c r="E13" s="42">
-        <v>1</v>
-      </c>
-      <c r="G13" s="44" t="s">
+      <c r="E13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="18" t="s">
         <v>276</v>
       </c>
       <c r="D14" s="50"/>
-      <c r="E14" s="42"/>
+      <c r="E14" s="46"/>
       <c r="G14" s="16" t="s">
         <v>255</v>
       </c>
@@ -5226,13 +5230,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="18" t="s">
         <v>277</v>
       </c>
       <c r="D15" s="50"/>
-      <c r="E15" s="42"/>
+      <c r="E15" s="46"/>
       <c r="G15" s="14" t="s">
         <v>314</v>
       </c>
@@ -5250,13 +5254,13 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="18" t="s">
         <v>278</v>
       </c>
       <c r="D16" s="50"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="46"/>
       <c r="G16" s="14" t="s">
         <v>0</v>
       </c>
@@ -5272,13 +5276,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
       <c r="G17" s="14" t="s">
         <v>1</v>
       </c>
@@ -5294,17 +5298,17 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="43" t="s">
         <v>280</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>275</v>
       </c>
       <c r="D18" s="51"/>
-      <c r="E18" s="41">
+      <c r="E18" s="48">
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
@@ -5322,38 +5326,38 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="18" t="s">
         <v>281</v>
       </c>
       <c r="D19" s="50"/>
-      <c r="E19" s="42"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="18" t="s">
         <v>282</v>
       </c>
       <c r="D20" s="50"/>
-      <c r="E20" s="42"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:11" ht="16.899999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="35"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="43"/>
-      <c r="G21" s="38" t="s">
+      <c r="E21" s="49"/>
+      <c r="G21" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="G22" s="16" t="s">
@@ -5390,13 +5394,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="G24" s="16" t="s">
         <v>324</v>
       </c>
@@ -5528,13 +5532,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G31" s="16" t="s">
@@ -5554,13 +5558,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="36"/>
       <c r="G32" s="16" t="s">
         <v>348</v>
       </c>
@@ -5668,13 +5672,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="46"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="36"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G38" s="16" t="s">
@@ -5694,13 +5698,13 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
       <c r="G39" s="16" t="s">
         <v>370</v>
       </c>
@@ -5898,13 +5902,13 @@
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="48" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="16" t="s">
@@ -6001,77 +6005,88 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="43" t="s">
         <v>274</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>362</v>
       </c>
       <c r="D55" s="18"/>
-      <c r="E55" s="41">
+      <c r="E55" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="34"/>
-      <c r="B56" s="36"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="43"/>
       <c r="C56" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D56" s="18"/>
-      <c r="E56" s="42"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="34"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="18" t="s">
         <v>364</v>
       </c>
       <c r="D57" s="18"/>
-      <c r="E57" s="42"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="34"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="43"/>
       <c r="C58" s="18" t="s">
         <v>365</v>
       </c>
       <c r="D58" s="18"/>
-      <c r="E58" s="42"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="34"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="43"/>
       <c r="C59" s="18" t="s">
         <v>366</v>
       </c>
       <c r="D59" s="18"/>
-      <c r="E59" s="42"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="34"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="43"/>
       <c r="C60" s="18" t="s">
         <v>367</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" s="42"/>
+      <c r="E60" s="46"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="35"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="19" t="s">
         <v>368</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="43"/>
+      <c r="E61" s="49"/>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="G30:K30"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:A17"/>
@@ -6082,17 +6097,6 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="G37:K37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
